--- a/LF/TAS/STP/st_lf_tas1_1_sites_202204.xlsx
+++ b/LF/TAS/STP/st_lf_tas1_1_sites_202204.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -728,10 +728,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Abr 2022) 1. TAS1 FL - Site formulário V2</t>
-  </si>
-  <si>
-    <t>st_lf_tas1_1_sites_202204_2</t>
+    <t>(Abr 2022) 1. TAS1 FL - Site formulário V3</t>
+  </si>
+  <si>
+    <t>st_lf_tas1_1_sites_202204_3</t>
   </si>
   <si>
     <t>Portugese</t>
@@ -754,8 +754,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -803,16 +803,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,11 +833,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -848,51 +855,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -907,10 +878,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -921,16 +901,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,17 +916,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,6 +927,43 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -993,7 +993,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,13 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,61 +1059,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,31 +1095,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,43 +1155,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,50 +1232,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,8 +1274,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,153 +1290,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1910,7 +1910,7 @@
   <sheetPr/>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -7618,8 +7618,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/LF/TAS/STP/st_lf_tas1_1_sites_202204.xlsx
+++ b/LF/TAS/STP/st_lf_tas1_1_sites_202204.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="14340" windowHeight="4305" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="360">
   <si>
     <t>type</t>
   </si>
@@ -1055,10 +1055,10 @@
     <t>Mezochi - Lobata</t>
   </si>
   <si>
+    <t>Caue- Lemba</t>
+  </si>
+  <si>
     <t>Bobo Forro (Á.Grande)</t>
-  </si>
-  <si>
-    <t>Caue- Lemba</t>
   </si>
   <si>
     <t>Água Arroz_2</t>
@@ -1108,10 +1108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1151,6 +1151,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1158,24 +1166,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,6 +1189,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1196,17 +1211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,8 +1226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,15 +1242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,6 +1263,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1273,38 +1301,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1353,7 +1353,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,13 +1395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,19 +1413,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,103 +1479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,13 +1491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,6 +1504,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,6 +1633,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1644,17 +1662,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1674,6 +1681,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1688,184 +1715,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1877,7 +1877,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1889,12 +1888,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2350,292 +2345,292 @@
     <col min="16" max="16" width="36.6222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="36" spans="1:16">
-      <c r="A1" s="42" t="s">
+    <row r="1" s="38" customFormat="1" ht="36" spans="1:16">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="41" customFormat="1" ht="57" spans="1:16">
-      <c r="A2" s="44" t="s">
+    <row r="2" s="38" customFormat="1" ht="57" spans="1:16">
+      <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="51" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-    </row>
-    <row r="3" s="41" customFormat="1" spans="1:16">
-      <c r="A3" s="44" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" s="38" customFormat="1" spans="1:16">
+      <c r="A3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-    </row>
-    <row r="4" s="41" customFormat="1" spans="1:16">
-      <c r="A4" s="44" t="s">
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+    </row>
+    <row r="4" s="38" customFormat="1" spans="1:16">
+      <c r="A4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45" t="s">
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" s="41" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A5" s="44" t="s">
+    <row r="5" s="38" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="51" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45" t="s">
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="41" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A6" s="44" t="s">
+    <row r="6" s="38" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-    </row>
-    <row r="7" s="41" customFormat="1" spans="1:16">
-      <c r="A7" s="44" t="s">
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+    </row>
+    <row r="7" s="38" customFormat="1" spans="1:16">
+      <c r="A7" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-    </row>
-    <row r="8" s="41" customFormat="1" spans="1:16">
-      <c r="A8" s="44" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+    </row>
+    <row r="8" s="38" customFormat="1" spans="1:16">
+      <c r="A8" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-    </row>
-    <row r="9" s="41" customFormat="1" spans="1:16">
-      <c r="A9" s="44" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+    </row>
+    <row r="9" s="38" customFormat="1" spans="1:16">
+      <c r="A9" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2649,7 +2644,7 @@
   <sheetPr/>
   <dimension ref="A1:G522"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16:F268"/>
@@ -2666,106 +2661,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" s="27" customFormat="1" spans="1:5">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" s="27" customFormat="1" spans="1:5">
-      <c r="A5" s="35" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" s="24" customFormat="1" spans="1:5">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" s="24" customFormat="1" spans="1:5">
+      <c r="A5" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" s="27" customFormat="1" spans="1:5">
-      <c r="A6" s="35" t="s">
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" s="24" customFormat="1" spans="1:5">
+      <c r="A6" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" s="27" customFormat="1" spans="1:5">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" s="24" customFormat="1" spans="1:5">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B8" t="s">
@@ -2779,7 +2774,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B9" t="s">
@@ -2793,7 +2788,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B10" t="s">
@@ -2807,7 +2802,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B11" t="s">
@@ -2821,7 +2816,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
@@ -2835,7 +2830,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B13" t="s">
@@ -2849,7 +2844,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B14" t="s">
@@ -2863,7 +2858,7 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="36"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -11497,18 +11492,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>334</v>
       </c>
       <c r="B2" t="s">
@@ -11528,12 +11523,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K254"/>
+  <dimension ref="A1:O254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E254"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="N2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.25"/>
@@ -11547,9 +11542,11 @@
     <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
     <col min="10" max="10" width="17.7777777777778" customWidth="1"/>
     <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="15.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>337</v>
       </c>
@@ -11577,8 +11574,14 @@
       <c r="K1" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>339</v>
+      </c>
+      <c r="O1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>53</v>
       </c>
@@ -11597,18 +11600,23 @@
       <c r="F2" s="5">
         <v>101</v>
       </c>
-      <c r="G2"/>
       <c r="H2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>54</v>
       </c>
@@ -11627,18 +11635,23 @@
       <c r="F3" s="5">
         <v>102</v>
       </c>
-      <c r="G3"/>
       <c r="H3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>55</v>
       </c>
@@ -11657,8 +11670,7 @@
       <c r="F4" s="5">
         <v>103</v>
       </c>
-      <c r="G4"/>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -11667,8 +11679,14 @@
       <c r="K4" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4" t="s">
+        <v>344</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>56</v>
       </c>
@@ -11682,23 +11700,28 @@
         <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F5" s="5">
         <v>104</v>
       </c>
-      <c r="G5"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5" t="s">
+        <v>344</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>57</v>
       </c>
@@ -11717,18 +11740,23 @@
       <c r="F6" s="5">
         <v>105</v>
       </c>
-      <c r="G6"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>345</v>
+      <c r="J6" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6" t="s">
+        <v>343</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>58</v>
       </c>
@@ -11747,18 +11775,23 @@
       <c r="F7" s="5">
         <v>106</v>
       </c>
-      <c r="G7"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" t="s">
+        <v>343</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>60</v>
       </c>
@@ -11777,14 +11810,19 @@
       <c r="F8" s="5">
         <v>107</v>
       </c>
-      <c r="G8"/>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -13292,16 +13330,16 @@
       <c r="A84">
         <v>195</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="12">
         <v>51</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E84" s="14" t="s">
+      <c r="C84" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>161</v>
       </c>
       <c r="F84" s="5">
@@ -13315,10 +13353,10 @@
       <c r="B85" s="3">
         <v>52</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="14" t="s">
+      <c r="C85" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -13335,10 +13373,10 @@
       <c r="B86" s="3">
         <v>53</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="14" t="s">
+      <c r="C86" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -13352,16 +13390,16 @@
       <c r="A87">
         <v>198</v>
       </c>
-      <c r="B87" s="15">
+      <c r="B87" s="13">
         <v>54</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E87" s="15" t="s">
+      <c r="C87" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E87" s="13" t="s">
         <v>164</v>
       </c>
       <c r="F87" s="5">
@@ -13372,16 +13410,16 @@
       <c r="A88">
         <v>199</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="13">
         <v>55</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E88" s="15" t="s">
+      <c r="C88" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88" s="13" t="s">
         <v>165</v>
       </c>
       <c r="F88" s="5">
@@ -13392,16 +13430,16 @@
       <c r="A89">
         <v>200</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="13">
         <v>56</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" s="15" t="s">
+      <c r="C89" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89" s="13" t="s">
         <v>166</v>
       </c>
       <c r="F89" s="5">
@@ -13415,13 +13453,13 @@
       <c r="B90" s="3">
         <v>58</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E90" s="15" t="s">
+      <c r="C90" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90" s="13" t="s">
         <v>351</v>
       </c>
       <c r="F90" s="5">
@@ -13435,13 +13473,13 @@
       <c r="B91" s="3">
         <v>57</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" s="15" t="s">
+      <c r="C91" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="13" t="s">
         <v>168</v>
       </c>
       <c r="F91" s="5">
@@ -13455,13 +13493,13 @@
       <c r="B92" s="3">
         <v>59</v>
       </c>
-      <c r="C92" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" s="15" t="s">
+      <c r="C92" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="13" t="s">
         <v>169</v>
       </c>
       <c r="F92" s="5">
@@ -13475,10 +13513,10 @@
       <c r="B93" s="3">
         <v>60</v>
       </c>
-      <c r="C93" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D93" s="14" t="s">
+      <c r="C93" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -13495,10 +13533,10 @@
       <c r="B94" s="3">
         <v>61</v>
       </c>
-      <c r="C94" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" s="14" t="s">
+      <c r="C94" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -13515,10 +13553,10 @@
       <c r="B95" s="3">
         <v>1</v>
       </c>
-      <c r="C95" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D95" s="14" t="s">
+      <c r="C95" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -13535,10 +13573,10 @@
       <c r="B96" s="3">
         <v>2</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D96" s="14" t="s">
+      <c r="C96" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -13552,16 +13590,16 @@
       <c r="A97">
         <v>83</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="2">
         <v>1</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D97" s="13" t="s">
+      <c r="C97" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F97" s="5">
@@ -13575,10 +13613,10 @@
       <c r="B98" s="2">
         <v>2</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D98" s="13" t="s">
+      <c r="C98" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E98" s="4" t="s">
@@ -13595,10 +13633,10 @@
       <c r="B99" s="2">
         <v>2</v>
       </c>
-      <c r="C99" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D99" s="13" t="s">
+      <c r="C99" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -13612,16 +13650,16 @@
       <c r="A100">
         <v>86</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="2">
         <v>3</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D100" s="13" t="s">
+      <c r="C100" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="4" t="s">
         <v>175</v>
       </c>
       <c r="F100" s="5">
@@ -13632,16 +13670,16 @@
       <c r="A101">
         <v>87</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="2">
         <v>3</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D101" s="13" t="s">
+      <c r="C101" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F101" s="5">
@@ -13652,16 +13690,16 @@
       <c r="A102">
         <v>88</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="2">
         <v>3</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D102" s="13" t="s">
+      <c r="C102" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F102" s="5">
@@ -13675,13 +13713,13 @@
       <c r="B103" s="2">
         <v>4</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D103" s="13" t="s">
+      <c r="C103" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F103" s="5">
@@ -13695,13 +13733,13 @@
       <c r="B104" s="2">
         <v>4</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D104" s="13" t="s">
+      <c r="C104" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F104" s="5">
@@ -13715,13 +13753,13 @@
       <c r="B105" s="2">
         <v>4</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D105" s="7" t="s">
+      <c r="C105" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="4" t="s">
         <v>180</v>
       </c>
       <c r="F105" s="5">
@@ -13735,10 +13773,10 @@
       <c r="B106" s="2">
         <v>4</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D106" s="7" t="s">
+      <c r="C106" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E106" s="4" t="s">
@@ -13755,10 +13793,10 @@
       <c r="B107" s="2">
         <v>5</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D107" s="7" t="s">
+      <c r="C107" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E107" s="4" t="s">
@@ -13775,10 +13813,10 @@
       <c r="B108" s="2">
         <v>6</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D108" s="7" t="s">
+      <c r="C108" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E108" s="4" t="s">
@@ -13795,10 +13833,10 @@
       <c r="B109" s="2">
         <v>7</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D109" s="7" t="s">
+      <c r="C109" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E109" s="4" t="s">
@@ -13815,10 +13853,10 @@
       <c r="B110" s="2">
         <v>8</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D110" s="7" t="s">
+      <c r="C110" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E110" s="4" t="s">
@@ -13835,10 +13873,10 @@
       <c r="B111" s="2">
         <v>8</v>
       </c>
-      <c r="C111" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D111" s="7" t="s">
+      <c r="C111" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E111" s="4" t="s">
@@ -13855,10 +13893,10 @@
       <c r="B112" s="2">
         <v>9</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D112" s="7" t="s">
+      <c r="C112" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E112" s="4" t="s">
@@ -13875,10 +13913,10 @@
       <c r="B113" s="2">
         <v>8</v>
       </c>
-      <c r="C113" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D113" s="7" t="s">
+      <c r="C113" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E113" s="4" t="s">
@@ -13895,10 +13933,10 @@
       <c r="B114" s="2">
         <v>8</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D114" s="7" t="s">
+      <c r="C114" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E114" s="4" t="s">
@@ -13915,10 +13953,10 @@
       <c r="B115" s="2">
         <v>9</v>
       </c>
-      <c r="C115" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D115" s="7" t="s">
+      <c r="C115" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E115" s="4" t="s">
@@ -13935,10 +13973,10 @@
       <c r="B116" s="2">
         <v>9</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D116" s="7" t="s">
+      <c r="C116" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E116" s="4" t="s">
@@ -13955,10 +13993,10 @@
       <c r="B117" s="2">
         <v>9</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D117" s="7" t="s">
+      <c r="C117" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E117" s="4" t="s">
@@ -13975,8 +14013,8 @@
       <c r="B118" s="2">
         <v>11</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>345</v>
+      <c r="C118" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>74</v>
@@ -13995,8 +14033,8 @@
       <c r="B119" s="2">
         <v>11</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>345</v>
+      <c r="C119" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>74</v>
@@ -14015,8 +14053,8 @@
       <c r="B120" s="2">
         <v>12</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>345</v>
+      <c r="C120" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>74</v>
@@ -14035,8 +14073,8 @@
       <c r="B121" s="2">
         <v>13</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>345</v>
+      <c r="C121" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>74</v>
@@ -14055,8 +14093,8 @@
       <c r="B122" s="2">
         <v>14</v>
       </c>
-      <c r="C122" s="12" t="s">
-        <v>345</v>
+      <c r="C122" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>74</v>
@@ -14075,8 +14113,8 @@
       <c r="B123" s="2">
         <v>15</v>
       </c>
-      <c r="C123" s="12" t="s">
-        <v>345</v>
+      <c r="C123" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>74</v>
@@ -14095,8 +14133,8 @@
       <c r="B124" s="2">
         <v>16</v>
       </c>
-      <c r="C124" s="12" t="s">
-        <v>345</v>
+      <c r="C124" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>74</v>
@@ -14115,8 +14153,8 @@
       <c r="B125" s="2">
         <v>17</v>
       </c>
-      <c r="C125" s="12" t="s">
-        <v>345</v>
+      <c r="C125" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>74</v>
@@ -14135,8 +14173,8 @@
       <c r="B126" s="2">
         <v>18</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>345</v>
+      <c r="C126" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>74</v>
@@ -14155,8 +14193,8 @@
       <c r="B127" s="2">
         <v>19</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>345</v>
+      <c r="C127" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>74</v>
@@ -14175,8 +14213,8 @@
       <c r="B128" s="2">
         <v>19</v>
       </c>
-      <c r="C128" s="12" t="s">
-        <v>345</v>
+      <c r="C128" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>74</v>
@@ -14195,8 +14233,8 @@
       <c r="B129" s="2">
         <v>19</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>345</v>
+      <c r="C129" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>74</v>
@@ -14215,8 +14253,8 @@
       <c r="B130" s="2">
         <v>19</v>
       </c>
-      <c r="C130" s="12" t="s">
-        <v>345</v>
+      <c r="C130" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>74</v>
@@ -14235,8 +14273,8 @@
       <c r="B131" s="2">
         <v>20</v>
       </c>
-      <c r="C131" s="12" t="s">
-        <v>345</v>
+      <c r="C131" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>74</v>
@@ -14255,8 +14293,8 @@
       <c r="B132" s="2">
         <v>20</v>
       </c>
-      <c r="C132" s="12" t="s">
-        <v>345</v>
+      <c r="C132" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>74</v>
@@ -14275,8 +14313,8 @@
       <c r="B133" s="2">
         <v>20</v>
       </c>
-      <c r="C133" s="12" t="s">
-        <v>345</v>
+      <c r="C133" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>74</v>
@@ -14295,8 +14333,8 @@
       <c r="B134" s="2">
         <v>20</v>
       </c>
-      <c r="C134" s="12" t="s">
-        <v>345</v>
+      <c r="C134" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>74</v>
@@ -14315,8 +14353,8 @@
       <c r="B135" s="2">
         <v>19</v>
       </c>
-      <c r="C135" s="12" t="s">
-        <v>345</v>
+      <c r="C135" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>74</v>
@@ -14335,8 +14373,8 @@
       <c r="B136" s="2">
         <v>20</v>
       </c>
-      <c r="C136" s="12" t="s">
-        <v>345</v>
+      <c r="C136" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>74</v>
@@ -14355,8 +14393,8 @@
       <c r="B137" s="2">
         <v>21</v>
       </c>
-      <c r="C137" s="12" t="s">
-        <v>345</v>
+      <c r="C137" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>74</v>
@@ -14375,8 +14413,8 @@
       <c r="B138" s="2">
         <v>22</v>
       </c>
-      <c r="C138" s="12" t="s">
-        <v>345</v>
+      <c r="C138" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>74</v>
@@ -14395,8 +14433,8 @@
       <c r="B139" s="2">
         <v>22</v>
       </c>
-      <c r="C139" s="12" t="s">
-        <v>345</v>
+      <c r="C139" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>74</v>
@@ -14412,13 +14450,13 @@
       <c r="A140">
         <v>127</v>
       </c>
-      <c r="B140" s="17">
+      <c r="B140" s="14">
         <v>23</v>
       </c>
-      <c r="C140" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D140" s="19" t="s">
+      <c r="C140" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D140" s="16" t="s">
         <v>74</v>
       </c>
       <c r="E140" s="4" t="s">
@@ -14432,16 +14470,16 @@
       <c r="A141">
         <v>128</v>
       </c>
-      <c r="B141" s="17">
+      <c r="B141" s="14">
         <v>23</v>
       </c>
-      <c r="C141" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D141" s="19" t="s">
+      <c r="C141" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D141" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E141" s="19" t="s">
+      <c r="E141" s="16" t="s">
         <v>217</v>
       </c>
       <c r="F141" s="5">
@@ -14452,16 +14490,16 @@
       <c r="A142">
         <v>129</v>
       </c>
-      <c r="B142" s="17">
+      <c r="B142" s="14">
         <v>23</v>
       </c>
-      <c r="C142" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D142" s="19" t="s">
+      <c r="C142" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D142" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E142" s="19" t="s">
+      <c r="E142" s="16" t="s">
         <v>218</v>
       </c>
       <c r="F142" s="5">
@@ -14472,16 +14510,16 @@
       <c r="A143">
         <v>130</v>
       </c>
-      <c r="B143" s="17">
+      <c r="B143" s="14">
         <v>23</v>
       </c>
-      <c r="C143" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D143" s="19" t="s">
+      <c r="C143" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D143" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E143" s="19" t="s">
+      <c r="E143" s="16" t="s">
         <v>219</v>
       </c>
       <c r="F143" s="5">
@@ -14492,16 +14530,16 @@
       <c r="A144">
         <v>131</v>
       </c>
-      <c r="B144" s="17">
+      <c r="B144" s="14">
         <v>24</v>
       </c>
-      <c r="C144" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D144" s="19" t="s">
+      <c r="C144" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D144" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E144" s="19" t="s">
+      <c r="E144" s="16" t="s">
         <v>220</v>
       </c>
       <c r="F144" s="5">
@@ -14512,16 +14550,16 @@
       <c r="A145">
         <v>132</v>
       </c>
-      <c r="B145" s="17">
+      <c r="B145" s="14">
         <v>25</v>
       </c>
-      <c r="C145" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D145" s="19" t="s">
+      <c r="C145" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D145" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E145" s="19" t="s">
+      <c r="E145" s="16" t="s">
         <v>221</v>
       </c>
       <c r="F145" s="5">
@@ -14532,16 +14570,16 @@
       <c r="A146">
         <v>133</v>
       </c>
-      <c r="B146" s="20">
+      <c r="B146" s="17">
         <v>26</v>
       </c>
-      <c r="C146" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="D146" s="21" t="s">
+      <c r="C146" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D146" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="E146" s="18" t="s">
         <v>222</v>
       </c>
       <c r="F146" s="5">
@@ -14552,16 +14590,16 @@
       <c r="A147">
         <v>139</v>
       </c>
-      <c r="B147" s="22">
+      <c r="B147" s="19">
         <v>27</v>
       </c>
-      <c r="C147" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D147" s="23" t="s">
+      <c r="C147" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D147" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E147" s="23" t="s">
+      <c r="E147" s="20" t="s">
         <v>223</v>
       </c>
       <c r="F147" s="5">
@@ -14572,16 +14610,16 @@
       <c r="A148">
         <v>137</v>
       </c>
-      <c r="B148" s="22">
+      <c r="B148" s="19">
         <v>27</v>
       </c>
-      <c r="C148" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D148" s="23" t="s">
+      <c r="C148" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D148" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E148" s="23" t="s">
+      <c r="E148" s="20" t="s">
         <v>224</v>
       </c>
       <c r="F148" s="5">
@@ -14592,16 +14630,16 @@
       <c r="A149">
         <v>136</v>
       </c>
-      <c r="B149" s="22">
+      <c r="B149" s="19">
         <v>27</v>
       </c>
-      <c r="C149" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D149" s="23" t="s">
+      <c r="C149" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D149" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E149" s="23" t="s">
+      <c r="E149" s="20" t="s">
         <v>225</v>
       </c>
       <c r="F149" s="5">
@@ -14612,16 +14650,16 @@
       <c r="A150">
         <v>138</v>
       </c>
-      <c r="B150" s="22">
+      <c r="B150" s="19">
         <v>27</v>
       </c>
-      <c r="C150" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D150" s="23" t="s">
+      <c r="C150" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D150" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E150" s="23" t="s">
+      <c r="E150" s="20" t="s">
         <v>226</v>
       </c>
       <c r="F150" s="5">
@@ -14632,16 +14670,16 @@
       <c r="A151">
         <v>134</v>
       </c>
-      <c r="B151" s="22">
+      <c r="B151" s="19">
         <v>27</v>
       </c>
-      <c r="C151" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D151" s="23" t="s">
+      <c r="C151" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D151" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E151" s="23" t="s">
+      <c r="E151" s="20" t="s">
         <v>227</v>
       </c>
       <c r="F151" s="5">
@@ -14652,16 +14690,16 @@
       <c r="A152">
         <v>135</v>
       </c>
-      <c r="B152" s="22">
+      <c r="B152" s="19">
         <v>27</v>
       </c>
-      <c r="C152" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D152" s="23" t="s">
+      <c r="C152" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D152" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E152" s="23" t="s">
+      <c r="E152" s="20" t="s">
         <v>228</v>
       </c>
       <c r="F152" s="5">
@@ -14672,16 +14710,16 @@
       <c r="A153">
         <v>140</v>
       </c>
-      <c r="B153" s="22">
+      <c r="B153" s="19">
         <v>28</v>
       </c>
-      <c r="C153" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D153" s="23" t="s">
+      <c r="C153" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D153" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E153" s="23" t="s">
+      <c r="E153" s="20" t="s">
         <v>229</v>
       </c>
       <c r="F153" s="5">
@@ -14692,16 +14730,16 @@
       <c r="A154">
         <v>141</v>
       </c>
-      <c r="B154" s="22">
+      <c r="B154" s="19">
         <v>29</v>
       </c>
-      <c r="C154" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D154" s="23" t="s">
+      <c r="C154" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D154" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E154" s="23" t="s">
+      <c r="E154" s="20" t="s">
         <v>230</v>
       </c>
       <c r="F154" s="5">
@@ -14712,16 +14750,16 @@
       <c r="A155">
         <v>142</v>
       </c>
-      <c r="B155" s="22">
+      <c r="B155" s="19">
         <v>29</v>
       </c>
-      <c r="C155" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D155" s="23" t="s">
+      <c r="C155" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D155" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E155" s="23" t="s">
+      <c r="E155" s="20" t="s">
         <v>231</v>
       </c>
       <c r="F155" s="5">
@@ -14732,16 +14770,16 @@
       <c r="A156">
         <v>143</v>
       </c>
-      <c r="B156" s="22">
+      <c r="B156" s="19">
         <v>29</v>
       </c>
-      <c r="C156" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D156" s="23" t="s">
+      <c r="C156" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D156" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E156" s="23" t="s">
+      <c r="E156" s="20" t="s">
         <v>232</v>
       </c>
       <c r="F156" s="5">
@@ -14752,16 +14790,16 @@
       <c r="A157">
         <v>144</v>
       </c>
-      <c r="B157" s="22">
+      <c r="B157" s="19">
         <v>30</v>
       </c>
-      <c r="C157" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D157" s="23" t="s">
+      <c r="C157" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D157" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E157" s="23" t="s">
+      <c r="E157" s="20" t="s">
         <v>233</v>
       </c>
       <c r="F157" s="5">
@@ -14772,16 +14810,16 @@
       <c r="A158">
         <v>104</v>
       </c>
-      <c r="B158" s="22">
+      <c r="B158" s="19">
         <v>10</v>
       </c>
-      <c r="C158" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D158" s="23" t="s">
+      <c r="C158" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D158" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E158" s="23" t="s">
+      <c r="E158" s="20" t="s">
         <v>354</v>
       </c>
       <c r="F158" s="5">
@@ -14792,16 +14830,16 @@
       <c r="A159">
         <v>33</v>
       </c>
-      <c r="B159" s="22">
+      <c r="B159" s="19">
         <v>22</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E159" s="23" t="s">
+      <c r="E159" s="20" t="s">
         <v>234</v>
       </c>
       <c r="F159" s="5">
@@ -14812,16 +14850,16 @@
       <c r="A160">
         <v>34</v>
       </c>
-      <c r="B160" s="22">
+      <c r="B160" s="19">
         <v>23</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E160" s="23" t="s">
+      <c r="E160" s="20" t="s">
         <v>235</v>
       </c>
       <c r="F160" s="5">
@@ -14832,16 +14870,16 @@
       <c r="A161">
         <v>35</v>
       </c>
-      <c r="B161" s="22">
+      <c r="B161" s="19">
         <v>24</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D161" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" s="20" t="s">
         <v>236</v>
       </c>
       <c r="F161" s="5">
@@ -14852,16 +14890,16 @@
       <c r="A162">
         <v>36</v>
       </c>
-      <c r="B162" s="22">
+      <c r="B162" s="19">
         <v>25</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D162" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E162" s="23" t="s">
+      <c r="E162" s="20" t="s">
         <v>237</v>
       </c>
       <c r="F162" s="5">
@@ -14872,16 +14910,16 @@
       <c r="A163">
         <v>37</v>
       </c>
-      <c r="B163" s="22">
+      <c r="B163" s="19">
         <v>25</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D163" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E163" s="23" t="s">
+      <c r="E163" s="20" t="s">
         <v>238</v>
       </c>
       <c r="F163" s="5">
@@ -14892,16 +14930,16 @@
       <c r="A164">
         <v>38</v>
       </c>
-      <c r="B164" s="22">
+      <c r="B164" s="19">
         <v>25</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E164" s="23" t="s">
+      <c r="E164" s="20" t="s">
         <v>239</v>
       </c>
       <c r="F164" s="5">
@@ -14912,16 +14950,16 @@
       <c r="A165">
         <v>39</v>
       </c>
-      <c r="B165" s="22">
+      <c r="B165" s="19">
         <v>26</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D165" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E165" s="23" t="s">
+      <c r="E165" s="20" t="s">
         <v>240</v>
       </c>
       <c r="F165" s="5">
@@ -14932,16 +14970,16 @@
       <c r="A166">
         <v>43</v>
       </c>
-      <c r="B166" s="22">
+      <c r="B166" s="19">
         <v>27</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C166" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D166" s="10" t="s">
+      <c r="D166" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E166" s="23" t="s">
+      <c r="E166" s="20" t="s">
         <v>241</v>
       </c>
       <c r="F166" s="5">
@@ -14952,16 +14990,16 @@
       <c r="A167">
         <v>40</v>
       </c>
-      <c r="B167" s="22">
+      <c r="B167" s="19">
         <v>27</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D167" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E167" s="23" t="s">
+      <c r="E167" s="20" t="s">
         <v>242</v>
       </c>
       <c r="F167" s="5">
@@ -14972,16 +15010,16 @@
       <c r="A168">
         <v>41</v>
       </c>
-      <c r="B168" s="22">
+      <c r="B168" s="19">
         <v>27</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="D168" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E168" s="23" t="s">
+      <c r="E168" s="20" t="s">
         <v>243</v>
       </c>
       <c r="F168" s="5">
@@ -14992,16 +15030,16 @@
       <c r="A169">
         <v>42</v>
       </c>
-      <c r="B169" s="22">
+      <c r="B169" s="19">
         <v>27</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D169" s="10" t="s">
+      <c r="D169" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E169" s="23" t="s">
+      <c r="E169" s="20" t="s">
         <v>244</v>
       </c>
       <c r="F169" s="5">
@@ -15012,16 +15050,16 @@
       <c r="A170">
         <v>44</v>
       </c>
-      <c r="B170" s="22">
+      <c r="B170" s="19">
         <v>28</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D170" s="10" t="s">
+      <c r="D170" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E170" s="23" t="s">
+      <c r="E170" s="20" t="s">
         <v>245</v>
       </c>
       <c r="F170" s="5">
@@ -15032,16 +15070,16 @@
       <c r="A171">
         <v>45</v>
       </c>
-      <c r="B171" s="22">
+      <c r="B171" s="19">
         <v>28</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D171" s="10" t="s">
+      <c r="D171" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E171" s="23" t="s">
+      <c r="E171" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F171" s="5">
@@ -15052,16 +15090,16 @@
       <c r="A172">
         <v>46</v>
       </c>
-      <c r="B172" s="22">
+      <c r="B172" s="19">
         <v>29</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="D172" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E172" s="23" t="s">
+      <c r="E172" s="20" t="s">
         <v>247</v>
       </c>
       <c r="F172" s="5">
@@ -15072,16 +15110,16 @@
       <c r="A173">
         <v>47</v>
       </c>
-      <c r="B173" s="22">
+      <c r="B173" s="19">
         <v>30</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="D173" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E173" s="23" t="s">
+      <c r="E173" s="20" t="s">
         <v>248</v>
       </c>
       <c r="F173" s="5">
@@ -15092,16 +15130,16 @@
       <c r="A174">
         <v>48</v>
       </c>
-      <c r="B174" s="22">
+      <c r="B174" s="19">
         <v>30</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D174" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E174" s="23" t="s">
+      <c r="E174" s="20" t="s">
         <v>249</v>
       </c>
       <c r="F174" s="5">
@@ -15112,16 +15150,16 @@
       <c r="A175">
         <v>27</v>
       </c>
-      <c r="B175" s="22">
+      <c r="B175" s="19">
         <v>17</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D175" s="10" t="s">
+      <c r="D175" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E175" s="23" t="s">
+      <c r="E175" s="20" t="s">
         <v>252</v>
       </c>
       <c r="F175" s="5">
@@ -15132,16 +15170,16 @@
       <c r="A176">
         <v>3</v>
       </c>
-      <c r="B176" s="22">
+      <c r="B176" s="19">
         <v>2</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C176" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D176" s="10" t="s">
+      <c r="D176" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E176" s="23" t="s">
+      <c r="E176" s="20" t="s">
         <v>253</v>
       </c>
       <c r="F176" s="5">
@@ -15152,16 +15190,16 @@
       <c r="A177">
         <v>4</v>
       </c>
-      <c r="B177" s="22">
+      <c r="B177" s="19">
         <v>3</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D177" s="10" t="s">
+      <c r="D177" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E177" s="23" t="s">
+      <c r="E177" s="20" t="s">
         <v>254</v>
       </c>
       <c r="F177" s="5">
@@ -15172,16 +15210,16 @@
       <c r="A178">
         <v>5</v>
       </c>
-      <c r="B178" s="22">
+      <c r="B178" s="19">
         <v>4</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="C178" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D178" s="10" t="s">
+      <c r="D178" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E178" s="23" t="s">
+      <c r="E178" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F178" s="5">
@@ -15192,16 +15230,16 @@
       <c r="A179">
         <v>6</v>
       </c>
-      <c r="B179" s="22">
+      <c r="B179" s="19">
         <v>5</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D179" s="10" t="s">
+      <c r="D179" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E179" s="23" t="s">
+      <c r="E179" s="20" t="s">
         <v>256</v>
       </c>
       <c r="F179" s="5">
@@ -15212,16 +15250,16 @@
       <c r="A180">
         <v>7</v>
       </c>
-      <c r="B180" s="22">
+      <c r="B180" s="19">
         <v>6</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D180" s="10" t="s">
+      <c r="D180" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E180" s="23" t="s">
+      <c r="E180" s="20" t="s">
         <v>257</v>
       </c>
       <c r="F180" s="5">
@@ -15232,16 +15270,16 @@
       <c r="A181">
         <v>8</v>
       </c>
-      <c r="B181" s="22">
+      <c r="B181" s="19">
         <v>7</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C181" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D181" s="10" t="s">
+      <c r="D181" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E181" s="23" t="s">
+      <c r="E181" s="20" t="s">
         <v>258</v>
       </c>
       <c r="F181" s="5">
@@ -15252,16 +15290,16 @@
       <c r="A182">
         <v>9</v>
       </c>
-      <c r="B182" s="22">
+      <c r="B182" s="19">
         <v>8</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C182" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D182" s="10" t="s">
+      <c r="D182" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E182" s="23" t="s">
+      <c r="E182" s="20" t="s">
         <v>259</v>
       </c>
       <c r="F182" s="5">
@@ -15272,16 +15310,16 @@
       <c r="A183">
         <v>10</v>
       </c>
-      <c r="B183" s="22">
+      <c r="B183" s="19">
         <v>8</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="C183" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D183" s="10" t="s">
+      <c r="D183" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E183" s="23" t="s">
+      <c r="E183" s="20" t="s">
         <v>260</v>
       </c>
       <c r="F183" s="5">
@@ -15292,16 +15330,16 @@
       <c r="A184">
         <v>11</v>
       </c>
-      <c r="B184" s="22">
+      <c r="B184" s="19">
         <v>9</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="D184" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E184" s="23" t="s">
+      <c r="E184" s="20" t="s">
         <v>261</v>
       </c>
       <c r="F184" s="5">
@@ -15312,16 +15350,16 @@
       <c r="A185">
         <v>12</v>
       </c>
-      <c r="B185" s="22">
+      <c r="B185" s="19">
         <v>9</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="C185" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="D185" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E185" s="23" t="s">
+      <c r="E185" s="20" t="s">
         <v>262</v>
       </c>
       <c r="F185" s="5">
@@ -15332,16 +15370,16 @@
       <c r="A186">
         <v>13</v>
       </c>
-      <c r="B186" s="22">
+      <c r="B186" s="19">
         <v>10</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D186" s="10" t="s">
+      <c r="D186" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E186" s="23" t="s">
+      <c r="E186" s="20" t="s">
         <v>263</v>
       </c>
       <c r="F186" s="5">
@@ -15352,16 +15390,16 @@
       <c r="A187">
         <v>14</v>
       </c>
-      <c r="B187" s="22">
+      <c r="B187" s="19">
         <v>10</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D187" s="10" t="s">
+      <c r="D187" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E187" s="23" t="s">
+      <c r="E187" s="20" t="s">
         <v>264</v>
       </c>
       <c r="F187" s="5">
@@ -15372,16 +15410,16 @@
       <c r="A188">
         <v>15</v>
       </c>
-      <c r="B188" s="22">
+      <c r="B188" s="19">
         <v>10</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D188" s="10" t="s">
+      <c r="D188" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E188" s="23" t="s">
+      <c r="E188" s="20" t="s">
         <v>265</v>
       </c>
       <c r="F188" s="5">
@@ -15392,16 +15430,16 @@
       <c r="A189">
         <v>16</v>
       </c>
-      <c r="B189" s="22">
+      <c r="B189" s="19">
         <v>10</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C189" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D189" s="10" t="s">
+      <c r="D189" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E189" s="23" t="s">
+      <c r="E189" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F189" s="5">
@@ -15412,16 +15450,16 @@
       <c r="A190">
         <v>19</v>
       </c>
-      <c r="B190" s="22">
+      <c r="B190" s="19">
         <v>11</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="D190" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E190" s="23" t="s">
+      <c r="E190" s="20" t="s">
         <v>267</v>
       </c>
       <c r="F190" s="5">
@@ -15432,16 +15470,16 @@
       <c r="A191">
         <v>17</v>
       </c>
-      <c r="B191" s="22">
+      <c r="B191" s="19">
         <v>11</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D191" s="10" t="s">
+      <c r="D191" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E191" s="23" t="s">
+      <c r="E191" s="20" t="s">
         <v>268</v>
       </c>
       <c r="F191" s="5">
@@ -15452,16 +15490,16 @@
       <c r="A192">
         <v>18</v>
       </c>
-      <c r="B192" s="22">
+      <c r="B192" s="19">
         <v>11</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="D192" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E192" s="23" t="s">
+      <c r="E192" s="20" t="s">
         <v>269</v>
       </c>
       <c r="F192" s="5">
@@ -15472,16 +15510,16 @@
       <c r="A193">
         <v>20</v>
       </c>
-      <c r="B193" s="22">
+      <c r="B193" s="19">
         <v>12</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D193" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E193" s="23" t="s">
+      <c r="E193" s="20" t="s">
         <v>270</v>
       </c>
       <c r="F193" s="5">
@@ -15492,16 +15530,16 @@
       <c r="A194">
         <v>21</v>
       </c>
-      <c r="B194" s="22">
+      <c r="B194" s="19">
         <v>13</v>
       </c>
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D194" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E194" s="23" t="s">
+      <c r="E194" s="20" t="s">
         <v>271</v>
       </c>
       <c r="F194" s="5">
@@ -15512,16 +15550,16 @@
       <c r="A195">
         <v>22</v>
       </c>
-      <c r="B195" s="22">
+      <c r="B195" s="19">
         <v>14</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D195" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E195" s="23" t="s">
+      <c r="E195" s="20" t="s">
         <v>272</v>
       </c>
       <c r="F195" s="5">
@@ -15532,16 +15570,16 @@
       <c r="A196">
         <v>23</v>
       </c>
-      <c r="B196" s="22">
+      <c r="B196" s="19">
         <v>14</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C196" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D196" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E196" s="23" t="s">
+      <c r="E196" s="20" t="s">
         <v>273</v>
       </c>
       <c r="F196" s="5">
@@ -15552,16 +15590,16 @@
       <c r="A197">
         <v>24</v>
       </c>
-      <c r="B197" s="22">
+      <c r="B197" s="19">
         <v>15</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C197" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D197" s="10" t="s">
+      <c r="D197" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E197" s="23" t="s">
+      <c r="E197" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F197" s="5">
@@ -15572,16 +15610,16 @@
       <c r="A198">
         <v>25</v>
       </c>
-      <c r="B198" s="22">
+      <c r="B198" s="19">
         <v>16</v>
       </c>
-      <c r="C198" s="10" t="s">
+      <c r="C198" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="D198" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E198" s="23" t="s">
+      <c r="E198" s="20" t="s">
         <v>275</v>
       </c>
       <c r="F198" s="5">
@@ -15592,16 +15630,16 @@
       <c r="A199">
         <v>26</v>
       </c>
-      <c r="B199" s="22">
+      <c r="B199" s="19">
         <v>17</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C199" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="D199" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E199" s="23" t="s">
+      <c r="E199" s="20" t="s">
         <v>276</v>
       </c>
       <c r="F199" s="5">
@@ -15612,16 +15650,16 @@
       <c r="A200">
         <v>28</v>
       </c>
-      <c r="B200" s="22">
+      <c r="B200" s="19">
         <v>18</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D200" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E200" s="23" t="s">
+      <c r="E200" s="20" t="s">
         <v>277</v>
       </c>
       <c r="F200" s="5">
@@ -15632,16 +15670,16 @@
       <c r="A201">
         <v>29</v>
       </c>
-      <c r="B201" s="22">
+      <c r="B201" s="19">
         <v>19</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="D201" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E201" s="23" t="s">
+      <c r="E201" s="20" t="s">
         <v>278</v>
       </c>
       <c r="F201" s="5">
@@ -15652,16 +15690,16 @@
       <c r="A202">
         <v>30</v>
       </c>
-      <c r="B202" s="22">
+      <c r="B202" s="19">
         <v>19</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C202" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D202" s="10" t="s">
+      <c r="D202" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E202" s="23" t="s">
+      <c r="E202" s="20" t="s">
         <v>279</v>
       </c>
       <c r="F202" s="5">
@@ -15672,16 +15710,16 @@
       <c r="A203">
         <v>31</v>
       </c>
-      <c r="B203" s="22">
+      <c r="B203" s="19">
         <v>20</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="C203" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D203" s="10" t="s">
+      <c r="D203" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E203" s="23" t="s">
+      <c r="E203" s="20" t="s">
         <v>280</v>
       </c>
       <c r="F203" s="5">
@@ -15692,16 +15730,16 @@
       <c r="A204">
         <v>32</v>
       </c>
-      <c r="B204" s="22">
+      <c r="B204" s="19">
         <v>21</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="C204" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D204" s="10" t="s">
+      <c r="D204" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E204" s="23" t="s">
+      <c r="E204" s="20" t="s">
         <v>281</v>
       </c>
       <c r="F204" s="5">
@@ -15712,16 +15750,16 @@
       <c r="A205">
         <v>1</v>
       </c>
-      <c r="B205" s="22">
+      <c r="B205" s="19">
         <v>1</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C205" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="D205" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E205" s="23" t="s">
+      <c r="E205" s="20" t="s">
         <v>355</v>
       </c>
       <c r="F205" s="5">
@@ -15732,16 +15770,16 @@
       <c r="A206">
         <v>2</v>
       </c>
-      <c r="B206" s="22">
+      <c r="B206" s="19">
         <v>1</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C206" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D206" s="10" t="s">
+      <c r="D206" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E206" s="23" t="s">
+      <c r="E206" s="20" t="s">
         <v>356</v>
       </c>
       <c r="F206" s="5">
